--- a/Project 1 milestone/State description_project1.xlsx
+++ b/Project 1 milestone/State description_project1.xlsx
@@ -21,6 +21,278 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
+  <si>
+    <t>Q0</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
+  </si>
+  <si>
+    <t>Q10</t>
+  </si>
+  <si>
+    <t>Q11</t>
+  </si>
+  <si>
+    <t>Q12</t>
+  </si>
+  <si>
+    <t>Q13</t>
+  </si>
+  <si>
+    <t>Q14</t>
+  </si>
+  <si>
+    <t>Q15</t>
+  </si>
+  <si>
+    <t>Q16</t>
+  </si>
+  <si>
+    <t>Q17</t>
+  </si>
+  <si>
+    <t>Q18</t>
+  </si>
+  <si>
+    <t>Q19</t>
+  </si>
+  <si>
+    <t>Q20</t>
+  </si>
+  <si>
+    <t>Q21</t>
+  </si>
+  <si>
+    <t>Q22</t>
+  </si>
+  <si>
+    <t>Q23</t>
+  </si>
+  <si>
+    <t>Q24</t>
+  </si>
+  <si>
+    <t>Q25</t>
+  </si>
+  <si>
+    <t>Q26</t>
+  </si>
+  <si>
+    <t>Q27</t>
+  </si>
+  <si>
+    <t>Q28</t>
+  </si>
+  <si>
+    <t>Q29</t>
+  </si>
+  <si>
+    <t>Q30</t>
+  </si>
+  <si>
+    <t>Q31</t>
+  </si>
+  <si>
+    <t>Q32</t>
+  </si>
+  <si>
+    <t>Q33</t>
+  </si>
+  <si>
+    <t>Q34</t>
+  </si>
+  <si>
+    <t>Q35</t>
+  </si>
+  <si>
+    <t>Q36</t>
+  </si>
+  <si>
+    <t>Q37</t>
+  </si>
+  <si>
+    <t>Q38</t>
+  </si>
+  <si>
+    <t>Q39</t>
+  </si>
+  <si>
+    <t>Q40</t>
+  </si>
+  <si>
+    <t>Q41</t>
+  </si>
+  <si>
+    <t>Q42</t>
+  </si>
+  <si>
+    <t>Q43</t>
+  </si>
+  <si>
+    <t>Q44</t>
+  </si>
+  <si>
+    <t>Q45</t>
+  </si>
+  <si>
+    <t>Q46</t>
+  </si>
+  <si>
+    <t>Q47</t>
+  </si>
+  <si>
+    <t>Q48</t>
+  </si>
+  <si>
+    <t>Q49</t>
+  </si>
+  <si>
+    <t>Starting state, can succesfully receive {a-z} and *, not an accepting state</t>
+  </si>
+  <si>
+    <t>p char entered, can succesfully receive r char, not an accepting state</t>
+  </si>
+  <si>
+    <t>r char entered, can succesfully receive i char, not an accepting state</t>
+  </si>
+  <si>
+    <t>i char entered, can succesfully receive n char, not an accepting state</t>
+  </si>
+  <si>
+    <t>n char entered, can succesfully receive t char, not an accepting state</t>
+  </si>
+  <si>
+    <t>t char entered, can succesfully receive _ char, not an accepting state</t>
+  </si>
+  <si>
+    <t>_ char entered, can succesfully receive ( char, not an accepting state</t>
+  </si>
+  <si>
+    <t>( char entered, can succesfully receive {a-z},{0-9} and *, not an accepting state</t>
+  </si>
+  <si>
+    <t>{a-z} char entered, can succesfully receive _ char, not an accepting state</t>
+  </si>
+  <si>
+    <t>_ char entered, can succesfully receive ) char, not an accepting state</t>
+  </si>
+  <si>
+    <t>) char entered, is an accepting state</t>
+  </si>
+  <si>
+    <t>" char entered, can succesfully receive {a-z} char, not an accepting state</t>
+  </si>
+  <si>
+    <t>{a-z} char entered, can succesfully receive {a-z} and _ char, not an accepting state</t>
+  </si>
+  <si>
+    <t>_ char entered, can succesfully receive {a-z} and " char, not an accepting state</t>
+  </si>
+  <si>
+    <t>" char entered, can succesfully receive _ char, not an accepting state</t>
+  </si>
+  <si>
+    <t>{0-9} char entered, can succesfully receive _ char, not an accepting state</t>
+  </si>
+  <si>
+    <t>_ char entered, can succesfully receive ) and + char, not an accepting state</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + char entered, can succesfully receive _ char, not an accepting state</t>
+  </si>
+  <si>
+    <t>_ char entered, can succesfully receive  {a-z}char, not an accepting state</t>
+  </si>
+  <si>
+    <t>_ char entered, can succesfully receive _)char, not an accepting state</t>
+  </si>
+  <si>
+    <t>v char entered, can succesfully receive  a char, not an accepting state</t>
+  </si>
+  <si>
+    <t>a char entered, can succesfully receive  r char, not an accepting state</t>
+  </si>
+  <si>
+    <t>r char entered, can succesfully receive _ char, not an accepting state</t>
+  </si>
+  <si>
+    <t>_ char entered, can succesfully receive {a-z} char, not an accepting state</t>
+  </si>
+  <si>
+    <t>{a-z} char entered, can succesfully receive {a-z}char, is an accepting state</t>
+  </si>
+  <si>
+    <t>{a-z} - v,p char entered, can succesfully receive _ char, not an accepting state</t>
+  </si>
+  <si>
+    <t>_ char entered, can succesfully receive = char, not an accepting state</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = char entered, can succesfully receive _ char, not an accepting state</t>
+  </si>
+  <si>
+    <t>_ char entered, can succesfully receive ", {0-9}, or {a-z} char, not an accepting state</t>
+  </si>
+  <si>
+    <t>_ char entered, can succesfully receive + char, not an accepting state</t>
+  </si>
+  <si>
+    <t>{a-z} char entered, can succesfully receive {a-z} char, is an accepting state</t>
+  </si>
+  <si>
+    <t>_ char entered, can succesfully receive " char, not an accepting state</t>
+  </si>
+  <si>
+    <t>" char entered, can succesfully receive any char, is an accepting state</t>
+  </si>
+  <si>
+    <t>" char entered, can succesfully receive - char, not an accepting state</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - char entered, can succesfully receive _ char, not an accepting state</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _ char entered, can succesfully receive - char, not an accepting state</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - char entered, can succesfully receive * char, not an accepting state</t>
+  </si>
+  <si>
+    <t>* char entered, is an an accepting state</t>
+  </si>
+  <si>
+    <t>Error state</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -54,8 +326,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,12 +614,373 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AX10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="AT10" sqref="AT10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" customWidth="1"/>
+    <col min="9" max="9" width="29.85546875" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
+    <col min="12" max="12" width="29.28515625" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="14" max="14" width="27" customWidth="1"/>
+    <col min="15" max="15" width="30.5703125" customWidth="1"/>
+    <col min="16" max="16" width="32.7109375" customWidth="1"/>
+    <col min="17" max="18" width="25.7109375" customWidth="1"/>
+    <col min="19" max="19" width="28.85546875" customWidth="1"/>
+    <col min="20" max="20" width="29.28515625" customWidth="1"/>
+    <col min="21" max="21" width="30.140625" customWidth="1"/>
+    <col min="22" max="22" width="29.7109375" customWidth="1"/>
+    <col min="23" max="23" width="30.5703125" customWidth="1"/>
+    <col min="24" max="24" width="31.85546875" customWidth="1"/>
+    <col min="25" max="25" width="36" customWidth="1"/>
+    <col min="26" max="26" width="41.85546875" customWidth="1"/>
+    <col min="27" max="27" width="38.85546875" customWidth="1"/>
+    <col min="28" max="28" width="31" customWidth="1"/>
+    <col min="29" max="29" width="37.7109375" customWidth="1"/>
+    <col min="30" max="30" width="37.42578125" customWidth="1"/>
+    <col min="31" max="31" width="37.5703125" customWidth="1"/>
+    <col min="32" max="32" width="34.7109375" customWidth="1"/>
+    <col min="33" max="33" width="38.5703125" customWidth="1"/>
+    <col min="34" max="34" width="36.140625" customWidth="1"/>
+    <col min="35" max="35" width="37.140625" customWidth="1"/>
+    <col min="36" max="36" width="39.140625" customWidth="1"/>
+    <col min="37" max="37" width="38.28515625" customWidth="1"/>
+    <col min="38" max="38" width="36.7109375" customWidth="1"/>
+    <col min="39" max="39" width="40.140625" customWidth="1"/>
+    <col min="40" max="40" width="39.28515625" customWidth="1"/>
+    <col min="41" max="41" width="42.28515625" customWidth="1"/>
+    <col min="42" max="42" width="43.140625" customWidth="1"/>
+    <col min="43" max="43" width="40.42578125" customWidth="1"/>
+    <col min="44" max="44" width="38.5703125" customWidth="1"/>
+    <col min="45" max="45" width="34" customWidth="1"/>
+    <col min="46" max="46" width="38.7109375" customWidth="1"/>
+    <col min="47" max="47" width="33.42578125" customWidth="1"/>
+    <col min="48" max="48" width="35.42578125" customWidth="1"/>
+    <col min="49" max="49" width="39.42578125" customWidth="1"/>
+    <col min="50" max="50" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>